--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Alcam</t>
+  </si>
+  <si>
+    <t>Chl1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Alcam</t>
-  </si>
-  <si>
-    <t>Chl1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.4771596666666666</v>
+      </c>
+      <c r="H2">
+        <v>1.431479</v>
+      </c>
+      <c r="I2">
+        <v>0.4973652976730675</v>
+      </c>
+      <c r="J2">
+        <v>0.4973652976730676</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>42.078429</v>
-      </c>
-      <c r="H2">
-        <v>126.235287</v>
-      </c>
-      <c r="I2">
-        <v>0.9777085588730982</v>
-      </c>
-      <c r="J2">
-        <v>0.9777085588730982</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.07850066666666666</v>
+        <v>0.05940166666666667</v>
       </c>
       <c r="N2">
-        <v>0.235502</v>
+        <v>0.178205</v>
       </c>
       <c r="O2">
-        <v>0.01562049898812527</v>
+        <v>0.01186516648651917</v>
       </c>
       <c r="P2">
-        <v>0.01562049898812527</v>
+        <v>0.01186516648651917</v>
       </c>
       <c r="Q2">
-        <v>3.303184728786</v>
+        <v>0.02834407946611111</v>
       </c>
       <c r="R2">
-        <v>29.728662559074</v>
+        <v>0.255096715195</v>
       </c>
       <c r="S2">
-        <v>0.01527229555455865</v>
+        <v>0.005901322061508109</v>
       </c>
       <c r="T2">
-        <v>0.01527229555455865</v>
+        <v>0.005901322061508111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>42.078429</v>
+        <v>0.4771596666666666</v>
       </c>
       <c r="H3">
-        <v>126.235287</v>
+        <v>1.431479</v>
       </c>
       <c r="I3">
-        <v>0.9777085588730982</v>
+        <v>0.4973652976730675</v>
       </c>
       <c r="J3">
-        <v>0.9777085588730982</v>
+        <v>0.4973652976730676</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.153099</v>
       </c>
       <c r="O3">
-        <v>0.010154829999673</v>
+        <v>0.01019356989938328</v>
       </c>
       <c r="P3">
-        <v>0.010154829999673</v>
+        <v>0.01019356989938328</v>
       </c>
       <c r="Q3">
-        <v>2.147388467157</v>
+        <v>0.024350889269</v>
       </c>
       <c r="R3">
-        <v>19.326496204413</v>
+        <v>0.219158003421</v>
       </c>
       <c r="S3">
-        <v>0.009928464204581593</v>
+        <v>0.005069927927357987</v>
       </c>
       <c r="T3">
-        <v>0.009928464204581594</v>
+        <v>0.005069927927357988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>42.078429</v>
+        <v>0.4771596666666666</v>
       </c>
       <c r="H4">
-        <v>126.235287</v>
+        <v>1.431479</v>
       </c>
       <c r="I4">
-        <v>0.9777085588730982</v>
+        <v>0.4973652976730675</v>
       </c>
       <c r="J4">
-        <v>0.9777085588730982</v>
+        <v>0.4973652976730676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.68787</v>
       </c>
       <c r="O4">
-        <v>0.9742246710122017</v>
+        <v>0.9779412636140976</v>
       </c>
       <c r="P4">
-        <v>0.9742246710122018</v>
+        <v>0.9779412636140976</v>
       </c>
       <c r="Q4">
-        <v>206.01416498541</v>
+        <v>2.336153051081111</v>
       </c>
       <c r="R4">
-        <v>1854.12748486869</v>
+        <v>21.02537745973</v>
       </c>
       <c r="S4">
-        <v>0.9525077991139579</v>
+        <v>0.4863940476842015</v>
       </c>
       <c r="T4">
-        <v>0.952507799113958</v>
+        <v>0.4863940476842016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4771596666666666</v>
+        <v>0.482215</v>
       </c>
       <c r="H5">
-        <v>1.431479</v>
+        <v>1.446645</v>
       </c>
       <c r="I5">
-        <v>0.01108698925164327</v>
+        <v>0.5026347023269324</v>
       </c>
       <c r="J5">
-        <v>0.01108698925164327</v>
+        <v>0.5026347023269324</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07850066666666666</v>
+        <v>0.05940166666666667</v>
       </c>
       <c r="N5">
-        <v>0.235502</v>
+        <v>0.178205</v>
       </c>
       <c r="O5">
-        <v>0.01562049898812527</v>
+        <v>0.01186516648651917</v>
       </c>
       <c r="P5">
-        <v>0.01562049898812527</v>
+        <v>0.01186516648651917</v>
       </c>
       <c r="Q5">
-        <v>0.03745735193977778</v>
+        <v>0.02864437469166667</v>
       </c>
       <c r="R5">
-        <v>0.337116167458</v>
+        <v>0.257799372225</v>
       </c>
       <c r="S5">
-        <v>0.0001731843043866494</v>
+        <v>0.005963844425011055</v>
       </c>
       <c r="T5">
-        <v>0.0001731843043866495</v>
+        <v>0.005963844425011055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4771596666666666</v>
+        <v>0.482215</v>
       </c>
       <c r="H6">
-        <v>1.431479</v>
+        <v>1.446645</v>
       </c>
       <c r="I6">
-        <v>0.01108698925164327</v>
+        <v>0.5026347023269324</v>
       </c>
       <c r="J6">
-        <v>0.01108698925164327</v>
+        <v>0.5026347023269324</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.153099</v>
       </c>
       <c r="O6">
-        <v>0.010154829999673</v>
+        <v>0.01019356989938328</v>
       </c>
       <c r="P6">
-        <v>0.010154829999673</v>
+        <v>0.01019356989938328</v>
       </c>
       <c r="Q6">
-        <v>0.024350889269</v>
+        <v>0.024608878095</v>
       </c>
       <c r="R6">
-        <v>0.219158003421</v>
+        <v>0.221479902855</v>
       </c>
       <c r="S6">
-        <v>0.0001125864910586392</v>
+        <v>0.005123641972025294</v>
       </c>
       <c r="T6">
-        <v>0.0001125864910586392</v>
+        <v>0.005123641972025294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4771596666666666</v>
+        <v>0.482215</v>
       </c>
       <c r="H7">
-        <v>1.431479</v>
+        <v>1.446645</v>
       </c>
       <c r="I7">
-        <v>0.01108698925164327</v>
+        <v>0.5026347023269324</v>
       </c>
       <c r="J7">
-        <v>0.01108698925164327</v>
+        <v>0.5026347023269324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>14.68787</v>
       </c>
       <c r="O7">
-        <v>0.9742246710122017</v>
+        <v>0.9779412636140976</v>
       </c>
       <c r="P7">
-        <v>0.9742246710122018</v>
+        <v>0.9779412636140976</v>
       </c>
       <c r="Q7">
-        <v>2.336153051081111</v>
+        <v>2.360903744016667</v>
       </c>
       <c r="R7">
-        <v>21.02537745973</v>
+        <v>21.24813369615</v>
       </c>
       <c r="S7">
-        <v>0.01080121845619798</v>
+        <v>0.4915472159298961</v>
       </c>
       <c r="T7">
-        <v>0.01080121845619798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.482215</v>
-      </c>
-      <c r="H8">
-        <v>1.446645</v>
-      </c>
-      <c r="I8">
-        <v>0.01120445187525872</v>
-      </c>
-      <c r="J8">
-        <v>0.01120445187525872</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.07850066666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.235502</v>
-      </c>
-      <c r="O8">
-        <v>0.01562049898812527</v>
-      </c>
-      <c r="P8">
-        <v>0.01562049898812527</v>
-      </c>
-      <c r="Q8">
-        <v>0.03785419897666666</v>
-      </c>
-      <c r="R8">
-        <v>0.34068779079</v>
-      </c>
-      <c r="S8">
-        <v>0.0001750191291799772</v>
-      </c>
-      <c r="T8">
-        <v>0.0001750191291799772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.482215</v>
-      </c>
-      <c r="H9">
-        <v>1.446645</v>
-      </c>
-      <c r="I9">
-        <v>0.01120445187525872</v>
-      </c>
-      <c r="J9">
-        <v>0.01120445187525872</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.051033</v>
-      </c>
-      <c r="N9">
-        <v>0.153099</v>
-      </c>
-      <c r="O9">
-        <v>0.010154829999673</v>
-      </c>
-      <c r="P9">
-        <v>0.010154829999673</v>
-      </c>
-      <c r="Q9">
-        <v>0.024608878095</v>
-      </c>
-      <c r="R9">
-        <v>0.221479902855</v>
-      </c>
-      <c r="S9">
-        <v>0.0001137793040327697</v>
-      </c>
-      <c r="T9">
-        <v>0.0001137793040327697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.482215</v>
-      </c>
-      <c r="H10">
-        <v>1.446645</v>
-      </c>
-      <c r="I10">
-        <v>0.01120445187525872</v>
-      </c>
-      <c r="J10">
-        <v>0.01120445187525872</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.895956666666667</v>
-      </c>
-      <c r="N10">
-        <v>14.68787</v>
-      </c>
-      <c r="O10">
-        <v>0.9742246710122017</v>
-      </c>
-      <c r="P10">
-        <v>0.9742246710122018</v>
-      </c>
-      <c r="Q10">
-        <v>2.360903744016667</v>
-      </c>
-      <c r="R10">
-        <v>21.24813369615</v>
-      </c>
-      <c r="S10">
-        <v>0.01091565344204598</v>
-      </c>
-      <c r="T10">
-        <v>0.01091565344204598</v>
+        <v>0.4915472159298961</v>
       </c>
     </row>
   </sheetData>
